--- a/AppVwoTestStratergy/TestCases.xlsx
+++ b/AppVwoTestStratergy/TestCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johragup/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johragup/Documents/personel/Path_SDET/AppVwoTestStratergy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{263FDE39-2A5F-4241-AFC7-BD41B525506D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ABDF6C-7B5F-5B4A-AE66-8B397517696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" xr2:uid="{B2268777-0D0C-1842-904F-64F72B708B81}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>S.NO</t>
   </si>
@@ -167,6 +167,40 @@
 Enter an invalid email 
 Enter invalid password
 Click Login</t>
+  </si>
+  <si>
+    <t>UI/UX Test Cases</t>
+  </si>
+  <si>
+    <t>Alignment and Visibility of UI Elements</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Open the login page
+Check alignment of elements</t>
+  </si>
+  <si>
+    <t>All elements should be aligned properly</t>
+  </si>
+  <si>
+    <t>Verify proper alignment of input fields, buttons, 
+labels</t>
+  </si>
+  <si>
+    <t>Responsiveness on Mobile &amp; Tablet</t>
+  </si>
+  <si>
+    <t>Verify responsiveness across devices</t>
+  </si>
+  <si>
+    <t>Open login page on mobile 
+and tablet
+Check UI adjustments</t>
+  </si>
+  <si>
+    <t>Page should adjust properly</t>
   </si>
 </sst>
 </file>
@@ -210,14 +244,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57812C82-36F0-4A4A-9080-9AD600C0A718}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,16 +603,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -587,7 +625,7 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
@@ -595,6 +633,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -604,7 +645,7 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -612,6 +653,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -621,7 +665,7 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
@@ -629,6 +673,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -638,16 +685,67 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
